--- a/how_to_use.xlsx
+++ b/how_to_use.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
   <si>
     <t>parameter:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,6 +254,16 @@
   <si>
     <t>http://localhost/fyp_connect/get_restaurant_order.php?sql=SELECT%20*%20FROM%20`order`%20WHERE%20number=1%20OR%20number=2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_get_customer_address</t>
+  </si>
+  <si>
+    <t>customerid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/id_get_customer_address.php?customerid=c0001</t>
   </si>
 </sst>
 </file>
@@ -654,17 +664,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.5" customWidth="1"/>
-    <col min="3" max="3" width="45.25" customWidth="1"/>
-    <col min="4" max="4" width="130" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.375" customWidth="1"/>
+    <col min="3" max="3" width="66.75" customWidth="1"/>
+    <col min="4" max="4" width="173.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -908,13 +918,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -922,13 +932,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -936,13 +946,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -950,13 +960,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -964,13 +974,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -978,13 +988,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -992,31 +1002,45 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D25" r:id="rId1"/>
-    <hyperlink ref="D24" r:id="rId2"/>
-    <hyperlink ref="D23" r:id="rId3"/>
+    <hyperlink ref="D26" r:id="rId1"/>
+    <hyperlink ref="D25" r:id="rId2"/>
+    <hyperlink ref="D24" r:id="rId3"/>
     <hyperlink ref="D2" r:id="rId4"/>
     <hyperlink ref="D3" r:id="rId5"/>
     <hyperlink ref="D6" r:id="rId6"/>
@@ -1029,11 +1053,11 @@
     <hyperlink ref="D15" r:id="rId13"/>
     <hyperlink ref="D16" r:id="rId14"/>
     <hyperlink ref="D18" r:id="rId15"/>
-    <hyperlink ref="D20" r:id="rId16"/>
-    <hyperlink ref="D19" r:id="rId17"/>
+    <hyperlink ref="D21" r:id="rId16"/>
+    <hyperlink ref="D20" r:id="rId17"/>
     <hyperlink ref="D17" r:id="rId18"/>
-    <hyperlink ref="D21" r:id="rId19"/>
-    <hyperlink ref="D22" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId19"/>
+    <hyperlink ref="D23" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId21"/>

--- a/how_to_use.xlsx
+++ b/how_to_use.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
   <si>
     <t>parameter:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,13 +264,28 @@
   </si>
   <si>
     <t>http://localhost/fyp_connect/id_get_customer_address.php?customerid=c0001</t>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/create_orderline.php?ordernumber=1&amp;foodid=f0001&amp;quanitity=1&amp;item_total=25&amp;Restaurantid=r0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_available_order</t>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/get_available_order.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -308,6 +323,16 @@
       <b/>
       <u/>
       <sz val="16"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="18"/>
       <color theme="10"/>
       <name val="新細明體"/>
       <family val="1"/>
@@ -367,7 +392,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -381,6 +406,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -664,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -727,7 +755,9 @@
       <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -871,18 +901,18 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -890,13 +920,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -904,13 +934,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -918,13 +948,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -932,13 +962,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -946,13 +976,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -960,13 +990,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -974,13 +1004,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -988,13 +1018,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -1002,13 +1032,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -1016,31 +1046,45 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D26" r:id="rId1"/>
-    <hyperlink ref="D25" r:id="rId2"/>
-    <hyperlink ref="D24" r:id="rId3"/>
+    <hyperlink ref="D27" r:id="rId1"/>
+    <hyperlink ref="D26" r:id="rId2"/>
+    <hyperlink ref="D25" r:id="rId3"/>
     <hyperlink ref="D2" r:id="rId4"/>
     <hyperlink ref="D3" r:id="rId5"/>
     <hyperlink ref="D6" r:id="rId6"/>
@@ -1051,15 +1095,17 @@
     <hyperlink ref="D13" r:id="rId11"/>
     <hyperlink ref="D14" r:id="rId12"/>
     <hyperlink ref="D15" r:id="rId13"/>
-    <hyperlink ref="D16" r:id="rId14"/>
-    <hyperlink ref="D18" r:id="rId15"/>
-    <hyperlink ref="D21" r:id="rId16"/>
-    <hyperlink ref="D20" r:id="rId17"/>
-    <hyperlink ref="D17" r:id="rId18"/>
-    <hyperlink ref="D22" r:id="rId19"/>
-    <hyperlink ref="D23" r:id="rId20"/>
+    <hyperlink ref="D17" r:id="rId14"/>
+    <hyperlink ref="D19" r:id="rId15"/>
+    <hyperlink ref="D22" r:id="rId16"/>
+    <hyperlink ref="D21" r:id="rId17"/>
+    <hyperlink ref="D18" r:id="rId18"/>
+    <hyperlink ref="D23" r:id="rId19"/>
+    <hyperlink ref="D24" r:id="rId20"/>
+    <hyperlink ref="D4" r:id="rId21"/>
+    <hyperlink ref="D16" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId23"/>
 </worksheet>
 </file>
--- a/how_to_use.xlsx
+++ b/how_to_use.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
   <si>
     <t>parameter:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,189 +95,194 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>search_details</t>
+  </si>
+  <si>
+    <t>id_get_food_name</t>
+  </si>
+  <si>
+    <t>id_get_food_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_food</t>
+  </si>
+  <si>
+    <t>db_config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db_connect</t>
+  </si>
+  <si>
+    <t>customerid, order_total</t>
+  </si>
+  <si>
+    <t>ordernumber, foodid, quanitity, item_total, Restaurantid</t>
+  </si>
+  <si>
+    <t>userid</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>Example:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id, password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foodid</t>
+  </si>
+  <si>
+    <t>foodid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/get_restaurant_orderline.php?restaurantid=r0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restaurantid</t>
+  </si>
+  <si>
+    <t>number, restaurantid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type, keyword</t>
+  </si>
+  <si>
+    <t>id, name, type, price, image</t>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/update_food.php?id=f0001&amp;name=Black Tea&amp;type=Drink&amp;price=15&amp;image=Black_tea.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/search_details.php?type=food&amp;keyword=chicken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/restaurant_ordernumber_get_orderline.php?number=1&amp;restaurantid=r0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/create_food.php?name=french%20friess&amp;type=french%20fries&amp;price=13&amp;image=french_fries.jpg&amp;Restaurantid=r0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/create_order.php?customerid=c0001&amp;order_total=25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/customer_get_order.php?userid=10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/delete_food.php?id=f0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/delete_order.php?number=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/find_customer_id.php?userid=10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/find_restaurant_id.php?userid=10004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/get_all_food.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/get_all_order.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/get_all_user.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/get_order_details.php?number=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/get_user_details.php?id=10001&amp;password=10001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/id_get_food_type.php?foodid=f0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/id_get_food_name.php?foodid=f0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/get_restaurant_food.php?userid=10004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/get_restaurant_order.php?sql=SELECT%20*%20FROM%20`order`%20WHERE%20number=1%20OR%20number=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_get_customer_address</t>
+  </si>
+  <si>
+    <t>customerid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/id_get_customer_address.php?customerid=c0001</t>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/create_orderline.php?ordernumber=1&amp;foodid=f0001&amp;quanitity=1&amp;item_total=25&amp;Restaurantid=r0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_available_order</t>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/get_available_order.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>restaurant_ordernumber_get_orderline</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>search_details</t>
-  </si>
-  <si>
-    <t>id_get_food_name</t>
-  </si>
-  <si>
-    <t>id_get_food_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_food</t>
-  </si>
-  <si>
-    <t>update_order</t>
-  </si>
-  <si>
-    <t>db_config</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>db_connect</t>
-  </si>
-  <si>
-    <t>customerid, order_total</t>
-  </si>
-  <si>
-    <t>ordernumber, foodid, quanitity, item_total, Restaurantid</t>
-  </si>
-  <si>
-    <t>userid</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>Example:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id, password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foodid</t>
-  </si>
-  <si>
-    <t>foodid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost/fyp_connect/get_restaurant_orderline.php?restaurantid=r0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>restaurantid</t>
-  </si>
-  <si>
-    <t>number, restaurantid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type, keyword</t>
-  </si>
-  <si>
-    <t>id, name, type, price, image</t>
-  </si>
-  <si>
-    <t>http://localhost/fyp_connect/update_food.php?id=f0001&amp;name=Black Tea&amp;type=Drink&amp;price=15&amp;image=Black_tea.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost/fyp_connect/search_details.php?type=food&amp;keyword=chicken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost/fyp_connect/restaurant_ordernumber_get_orderline.php?number=1&amp;restaurantid=r0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost/fyp_connect/create_food.php?name=french%20friess&amp;type=french%20fries&amp;price=13&amp;image=french_fries.jpg&amp;Restaurantid=r0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost/fyp_connect/create_order.php?customerid=c0001&amp;order_total=25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost/fyp_connect/customer_get_order.php?userid=10002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost/fyp_connect/delete_food.php?id=f0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost/fyp_connect/delete_order.php?number=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost/fyp_connect/find_customer_id.php?userid=10002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost/fyp_connect/find_restaurant_id.php?userid=10004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost/fyp_connect/get_all_food.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost/fyp_connect/get_all_order.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost/fyp_connect/get_all_user.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost/fyp_connect/get_order_details.php?number=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost/fyp_connect/get_user_details.php?id=10001&amp;password=10001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost/fyp_connect/id_get_food_type.php?foodid=f0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost/fyp_connect/id_get_food_name.php?foodid=f0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost/fyp_connect/get_restaurant_food.php?userid=10004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost/fyp_connect/get_restaurant_order.php?sql=SELECT%20*%20FROM%20`order`%20WHERE%20number=1%20OR%20number=2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id_get_customer_address</t>
-  </si>
-  <si>
-    <t>customerid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost/fyp_connect/id_get_customer_address.php?customerid=c0001</t>
-  </si>
-  <si>
-    <t>http://localhost/fyp_connect/create_orderline.php?ordernumber=1&amp;foodid=f0001&amp;quanitity=1&amp;item_total=25&amp;Restaurantid=r0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get_available_order</t>
-  </si>
-  <si>
-    <t>N/A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost/fyp_connect/get_available_order.php</t>
+    <t>restaurant_update_order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver_update_order</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -692,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -714,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -728,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -739,10 +744,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -753,10 +758,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -777,10 +782,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -788,7 +793,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -798,7 +803,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -811,10 +816,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -825,38 +830,34 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="B11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -864,13 +865,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -878,13 +879,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -892,41 +893,41 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -934,13 +935,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -948,13 +949,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -962,13 +963,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -976,13 +977,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -990,13 +991,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -1004,13 +1005,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -1018,13 +1019,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -1032,13 +1033,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -1046,64 +1047,78 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="B27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="B28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D27" r:id="rId1"/>
-    <hyperlink ref="D26" r:id="rId2"/>
-    <hyperlink ref="D25" r:id="rId3"/>
+    <hyperlink ref="D29" r:id="rId1"/>
+    <hyperlink ref="D28" r:id="rId2"/>
+    <hyperlink ref="D26" r:id="rId3"/>
     <hyperlink ref="D2" r:id="rId4"/>
     <hyperlink ref="D3" r:id="rId5"/>
     <hyperlink ref="D6" r:id="rId6"/>
     <hyperlink ref="D9" r:id="rId7"/>
     <hyperlink ref="D10" r:id="rId8"/>
-    <hyperlink ref="D11" r:id="rId9"/>
-    <hyperlink ref="D12" r:id="rId10"/>
-    <hyperlink ref="D13" r:id="rId11"/>
-    <hyperlink ref="D14" r:id="rId12"/>
-    <hyperlink ref="D15" r:id="rId13"/>
-    <hyperlink ref="D17" r:id="rId14"/>
-    <hyperlink ref="D19" r:id="rId15"/>
-    <hyperlink ref="D22" r:id="rId16"/>
-    <hyperlink ref="D21" r:id="rId17"/>
-    <hyperlink ref="D18" r:id="rId18"/>
-    <hyperlink ref="D23" r:id="rId19"/>
-    <hyperlink ref="D24" r:id="rId20"/>
+    <hyperlink ref="D12" r:id="rId9"/>
+    <hyperlink ref="D13" r:id="rId10"/>
+    <hyperlink ref="D14" r:id="rId11"/>
+    <hyperlink ref="D15" r:id="rId12"/>
+    <hyperlink ref="D16" r:id="rId13"/>
+    <hyperlink ref="D18" r:id="rId14"/>
+    <hyperlink ref="D20" r:id="rId15"/>
+    <hyperlink ref="D23" r:id="rId16"/>
+    <hyperlink ref="D22" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D24" r:id="rId19"/>
+    <hyperlink ref="D25" r:id="rId20"/>
     <hyperlink ref="D4" r:id="rId21"/>
-    <hyperlink ref="D16" r:id="rId22"/>
+    <hyperlink ref="D17" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId23"/>

--- a/how_to_use.xlsx
+++ b/how_to_use.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
   <si>
     <t>parameter:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,6 +283,17 @@
   </si>
   <si>
     <t>driver_update_order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restaurant_update_order_status</t>
+  </si>
+  <si>
+    <t>ordernumber, restaurantid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/restaurant_update_order_status.php?ordernumber=1&amp;restaurantid=r0001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -345,7 +356,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,6 +372,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,7 +414,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -414,6 +431,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -697,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1070,14 +1093,14 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>44</v>
+      <c r="B28" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -1085,20 +1108,34 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D29" r:id="rId1"/>
-    <hyperlink ref="D28" r:id="rId2"/>
+    <hyperlink ref="D30" r:id="rId1"/>
+    <hyperlink ref="D29" r:id="rId2"/>
     <hyperlink ref="D26" r:id="rId3"/>
     <hyperlink ref="D2" r:id="rId4"/>
     <hyperlink ref="D3" r:id="rId5"/>
@@ -1119,8 +1156,9 @@
     <hyperlink ref="D25" r:id="rId20"/>
     <hyperlink ref="D4" r:id="rId21"/>
     <hyperlink ref="D17" r:id="rId22"/>
+    <hyperlink ref="D28" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId24"/>
 </worksheet>
 </file>
--- a/how_to_use.xlsx
+++ b/how_to_use.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="77">
   <si>
     <t>parameter:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,6 +294,14 @@
   </si>
   <si>
     <t>http://localhost/fyp_connect/restaurant_update_order_status.php?ordernumber=1&amp;restaurantid=r0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password, name, address, email, telNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/create_user.php?password=ggwp&amp;name=aaa&amp;address=asdasasd&amp;email=adgasdgasd&amp;telNum=12341234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -722,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -791,11 +799,15 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1157,8 +1169,9 @@
     <hyperlink ref="D4" r:id="rId21"/>
     <hyperlink ref="D17" r:id="rId22"/>
     <hyperlink ref="D28" r:id="rId23"/>
+    <hyperlink ref="D5" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId25"/>
 </worksheet>
 </file>
--- a/how_to_use.xlsx
+++ b/how_to_use.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
   <si>
     <t>parameter:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,10 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://localhost/fyp_connect/get_restaurant_orderline.php?restaurantid=r0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>restaurantid</t>
   </si>
   <si>
@@ -181,10 +177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://localhost/fyp_connect/restaurant_ordernumber_get_orderline.php?number=1&amp;restaurantid=r0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://localhost/fyp_connect/create_food.php?name=french%20friess&amp;type=french%20fries&amp;price=13&amp;image=french_fries.jpg&amp;Restaurantid=r0001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -245,10 +237,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://localhost/fyp_connect/get_restaurant_order.php?sql=SELECT%20*%20FROM%20`order`%20WHERE%20number=1%20OR%20number=2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id_get_customer_address</t>
   </si>
   <si>
@@ -278,14 +266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>restaurant_update_order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>driver_update_order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>restaurant_update_order_status</t>
   </si>
   <si>
@@ -303,6 +283,67 @@
   <si>
     <t>http://localhost/fyp_connect/create_user.php?password=ggwp&amp;name=aaa&amp;address=asdasasd&amp;email=adgasdgasd&amp;telNum=12341234</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver_handle_order</t>
+  </si>
+  <si>
+    <t>driverid, number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver_update_order_pick_time</t>
+  </si>
+  <si>
+    <t>driver_update_order_receive</t>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/driver_update_order_pick_time.php?driverid=d0001&amp;number=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/driver_update_order_receive.php?driverid=d0001&amp;number=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/driver_handle_order.php?driverid=d0001&amp;number=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restaurant_update_order_pick_up</t>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/restaurant_update_order_pick_up.php?ordernumber=1&amp;restaurantid=r0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restaurant_get_all_orderline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/restaurant_get_order.php?sql=SELECT%20*%20FROM%20`order`%20WHERE%20number=1%20OR%20number=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/restaurant_get_all_orderline.php?restaurantid=r0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/restaurant_get_orderline.php?restaurantid=r0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/restaurant_ordernumber_get_orderline.php?number=2&amp;restaurantid=r0002</t>
+  </si>
+  <si>
+    <t>update_customer</t>
+  </si>
+  <si>
+    <t>id, name, address, email, telNum, payment, cardnumber, securitycode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/update_customer.php?id=c0001&amp;name=customer1&amp;address=9%20Room,%209%20Flat,%20Yee%20Hau%20House,%20Yee%20Nga%20Court,%20Tai%20Po,%20N.T.&amp;email=bbbb@gmail.com.hk&amp;telNum=11111111&amp;payment=Cash&amp;cardnumber=null&amp;securitycode=null</t>
   </si>
 </sst>
 </file>
@@ -364,18 +405,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -422,7 +457,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -435,16 +470,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -728,17 +760,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="46.375" customWidth="1"/>
-    <col min="3" max="3" width="66.75" customWidth="1"/>
-    <col min="4" max="4" width="173.5" customWidth="1"/>
+    <col min="3" max="3" width="85.375" customWidth="1"/>
+    <col min="4" max="4" width="255.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -764,7 +796,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -778,7 +810,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -792,21 +824,21 @@
         <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>76</v>
+      <c r="C5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -820,28 +852,28 @@
         <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -854,7 +886,7 @@
         <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -868,45 +900,49 @@
         <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>51</v>
+      <c r="B12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>52</v>
+      <c r="B13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -914,13 +950,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -928,13 +964,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -942,27 +978,27 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>68</v>
+        <v>32</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -970,13 +1006,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -984,13 +1020,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -998,13 +1034,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -1012,13 +1048,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -1026,13 +1062,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -1040,13 +1076,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -1054,13 +1090,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -1068,51 +1104,55 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>74</v>
+      <c r="B28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -1120,58 +1160,118 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D30" r:id="rId1"/>
-    <hyperlink ref="D29" r:id="rId2"/>
-    <hyperlink ref="D26" r:id="rId3"/>
-    <hyperlink ref="D2" r:id="rId4"/>
-    <hyperlink ref="D3" r:id="rId5"/>
-    <hyperlink ref="D6" r:id="rId6"/>
-    <hyperlink ref="D9" r:id="rId7"/>
-    <hyperlink ref="D10" r:id="rId8"/>
-    <hyperlink ref="D12" r:id="rId9"/>
-    <hyperlink ref="D13" r:id="rId10"/>
-    <hyperlink ref="D14" r:id="rId11"/>
-    <hyperlink ref="D15" r:id="rId12"/>
-    <hyperlink ref="D16" r:id="rId13"/>
-    <hyperlink ref="D18" r:id="rId14"/>
-    <hyperlink ref="D20" r:id="rId15"/>
-    <hyperlink ref="D23" r:id="rId16"/>
-    <hyperlink ref="D22" r:id="rId17"/>
-    <hyperlink ref="D19" r:id="rId18"/>
-    <hyperlink ref="D24" r:id="rId19"/>
-    <hyperlink ref="D25" r:id="rId20"/>
-    <hyperlink ref="D4" r:id="rId21"/>
-    <hyperlink ref="D17" r:id="rId22"/>
-    <hyperlink ref="D28" r:id="rId23"/>
-    <hyperlink ref="D5" r:id="rId24"/>
+    <hyperlink ref="D34" r:id="rId1"/>
+    <hyperlink ref="D32" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D9" r:id="rId6"/>
+    <hyperlink ref="D10" r:id="rId7"/>
+    <hyperlink ref="D14" r:id="rId8"/>
+    <hyperlink ref="D15" r:id="rId9"/>
+    <hyperlink ref="D16" r:id="rId10"/>
+    <hyperlink ref="D17" r:id="rId11"/>
+    <hyperlink ref="D18" r:id="rId12"/>
+    <hyperlink ref="D20" r:id="rId13"/>
+    <hyperlink ref="D22" r:id="rId14"/>
+    <hyperlink ref="D25" r:id="rId15"/>
+    <hyperlink ref="D24" r:id="rId16"/>
+    <hyperlink ref="D21" r:id="rId17"/>
+    <hyperlink ref="D26" r:id="rId18"/>
+    <hyperlink ref="D28" r:id="rId19"/>
+    <hyperlink ref="D4" r:id="rId20"/>
+    <hyperlink ref="D19" r:id="rId21"/>
+    <hyperlink ref="D31" r:id="rId22"/>
+    <hyperlink ref="D5" r:id="rId23"/>
+    <hyperlink ref="D12" r:id="rId24"/>
+    <hyperlink ref="D13" r:id="rId25"/>
+    <hyperlink ref="D11" r:id="rId26"/>
+    <hyperlink ref="D30" r:id="rId27"/>
+    <hyperlink ref="D27" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId25"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId29"/>
 </worksheet>
 </file>
--- a/how_to_use.xlsx
+++ b/how_to_use.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>parameter:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -344,6 +344,17 @@
   </si>
   <si>
     <t>http://localhost/fyp_connect/update_customer.php?id=c0001&amp;name=customer1&amp;address=9%20Room,%209%20Flat,%20Yee%20Hau%20House,%20Yee%20Nga%20Court,%20Tai%20Po,%20N.T.&amp;email=bbbb@gmail.com.hk&amp;telNum=11111111&amp;payment=Cash&amp;cardnumber=null&amp;securitycode=null</t>
+  </si>
+  <si>
+    <t>driver_get_order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/driver_get_order.php</t>
   </si>
 </sst>
 </file>
@@ -760,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -907,14 +918,14 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>78</v>
+      <c r="B11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -922,13 +933,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -936,27 +947,27 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>49</v>
+      <c r="B14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -964,13 +975,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -978,13 +989,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -992,13 +1003,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -1006,13 +1017,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -1020,13 +1031,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -1034,13 +1045,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -1048,13 +1059,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -1062,13 +1073,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -1076,13 +1087,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -1090,13 +1101,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -1104,27 +1115,27 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>82</v>
+        <v>35</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1132,13 +1143,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1146,41 +1157,41 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>85</v>
+        <v>38</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>80</v>
+      <c r="B30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -1188,27 +1199,27 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>68</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>43</v>
+      <c r="B32" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -1216,13 +1227,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -1230,46 +1241,60 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D34" r:id="rId1"/>
-    <hyperlink ref="D32" r:id="rId2"/>
+    <hyperlink ref="D35" r:id="rId1"/>
+    <hyperlink ref="D33" r:id="rId2"/>
     <hyperlink ref="D2" r:id="rId3"/>
     <hyperlink ref="D3" r:id="rId4"/>
     <hyperlink ref="D6" r:id="rId5"/>
     <hyperlink ref="D9" r:id="rId6"/>
     <hyperlink ref="D10" r:id="rId7"/>
-    <hyperlink ref="D14" r:id="rId8"/>
-    <hyperlink ref="D15" r:id="rId9"/>
-    <hyperlink ref="D16" r:id="rId10"/>
-    <hyperlink ref="D17" r:id="rId11"/>
-    <hyperlink ref="D18" r:id="rId12"/>
-    <hyperlink ref="D20" r:id="rId13"/>
-    <hyperlink ref="D22" r:id="rId14"/>
-    <hyperlink ref="D25" r:id="rId15"/>
-    <hyperlink ref="D24" r:id="rId16"/>
-    <hyperlink ref="D21" r:id="rId17"/>
-    <hyperlink ref="D26" r:id="rId18"/>
-    <hyperlink ref="D28" r:id="rId19"/>
+    <hyperlink ref="D15" r:id="rId8"/>
+    <hyperlink ref="D16" r:id="rId9"/>
+    <hyperlink ref="D17" r:id="rId10"/>
+    <hyperlink ref="D18" r:id="rId11"/>
+    <hyperlink ref="D19" r:id="rId12"/>
+    <hyperlink ref="D21" r:id="rId13"/>
+    <hyperlink ref="D23" r:id="rId14"/>
+    <hyperlink ref="D26" r:id="rId15"/>
+    <hyperlink ref="D25" r:id="rId16"/>
+    <hyperlink ref="D22" r:id="rId17"/>
+    <hyperlink ref="D27" r:id="rId18"/>
+    <hyperlink ref="D29" r:id="rId19"/>
     <hyperlink ref="D4" r:id="rId20"/>
-    <hyperlink ref="D19" r:id="rId21"/>
-    <hyperlink ref="D31" r:id="rId22"/>
+    <hyperlink ref="D20" r:id="rId21"/>
+    <hyperlink ref="D32" r:id="rId22"/>
     <hyperlink ref="D5" r:id="rId23"/>
-    <hyperlink ref="D12" r:id="rId24"/>
-    <hyperlink ref="D13" r:id="rId25"/>
-    <hyperlink ref="D11" r:id="rId26"/>
-    <hyperlink ref="D30" r:id="rId27"/>
-    <hyperlink ref="D27" r:id="rId28"/>
+    <hyperlink ref="D13" r:id="rId24"/>
+    <hyperlink ref="D14" r:id="rId25"/>
+    <hyperlink ref="D12" r:id="rId26"/>
+    <hyperlink ref="D31" r:id="rId27"/>
+    <hyperlink ref="D28" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId29"/>

--- a/how_to_use.xlsx
+++ b/how_to_use.xlsx
@@ -397,23 +397,19 @@
     </font>
     <font>
       <b/>
-      <u/>
       <sz val="16"/>
-      <color theme="10"/>
-      <name val="新細明體"/>
-      <family val="1"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
       <charset val="136"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="18"/>
+      <sz val="16"/>
       <color theme="10"/>
-      <name val="新細明體"/>
-      <family val="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
       <charset val="136"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -468,26 +464,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -774,17 +776,17 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A35"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="46.375" customWidth="1"/>
     <col min="3" max="3" width="85.375" customWidth="1"/>
-    <col min="4" max="4" width="255.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -792,11 +794,11 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -806,11 +808,11 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -820,11 +822,11 @@
       <c r="C3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -834,25 +836,25 @@
       <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -862,31 +864,31 @@
       <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -896,11 +898,11 @@
       <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -910,11 +912,11 @@
       <c r="C10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -924,53 +926,53 @@
       <c r="C11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -980,11 +982,11 @@
       <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -994,11 +996,11 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1008,11 +1010,11 @@
       <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1022,11 +1024,11 @@
       <c r="C18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1036,11 +1038,11 @@
       <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1050,11 +1052,11 @@
       <c r="C20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1064,11 +1066,11 @@
       <c r="C21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1078,11 +1080,11 @@
       <c r="C22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1092,11 +1094,11 @@
       <c r="C23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1106,11 +1108,11 @@
       <c r="C24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1120,11 +1122,11 @@
       <c r="C25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1134,7 +1136,7 @@
       <c r="C26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1148,7 +1150,7 @@
       <c r="C27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="5" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1162,7 +1164,7 @@
       <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="5" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1176,11 +1178,11 @@
       <c r="C29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1190,39 +1192,39 @@
       <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1232,11 +1234,11 @@
       <c r="C33" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1246,11 +1248,11 @@
       <c r="C34" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1260,7 +1262,7 @@
       <c r="C35" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="5" t="s">
         <v>42</v>
       </c>
     </row>

--- a/how_to_use.xlsx
+++ b/how_to_use.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="95">
   <si>
     <t>parameter:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,13 +355,25 @@
   </si>
   <si>
     <t>http://localhost/fyp_connect/driver_get_order.php</t>
+  </si>
+  <si>
+    <t>customer_get_order2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/customer_get_order2.php?id=c0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -405,6 +417,15 @@
     </font>
     <font>
       <b/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="16"/>
       <color theme="10"/>
       <name val="Arial Unicode MS"/>
@@ -464,7 +485,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -490,6 +511,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -773,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.25"/>
@@ -872,18 +896,22 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="7"/>
+      <c r="B7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="7"/>
@@ -892,28 +920,24 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -921,27 +945,27 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>78</v>
+      <c r="B12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -949,13 +973,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -963,27 +987,27 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>49</v>
+      <c r="B15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -991,13 +1015,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1005,13 +1029,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1019,13 +1043,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1033,13 +1057,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1047,13 +1071,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1061,13 +1085,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1075,13 +1099,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1089,13 +1113,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1103,13 +1127,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1117,13 +1141,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1131,27 +1155,27 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1159,13 +1183,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1173,41 +1197,41 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>80</v>
+      <c r="B31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1215,27 +1239,27 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>43</v>
+      <c r="B33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1243,13 +1267,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1257,48 +1281,63 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D35" r:id="rId1"/>
-    <hyperlink ref="D33" r:id="rId2"/>
+    <hyperlink ref="D36" r:id="rId1"/>
+    <hyperlink ref="D34" r:id="rId2"/>
     <hyperlink ref="D2" r:id="rId3"/>
     <hyperlink ref="D3" r:id="rId4"/>
     <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D9" r:id="rId6"/>
-    <hyperlink ref="D10" r:id="rId7"/>
-    <hyperlink ref="D15" r:id="rId8"/>
-    <hyperlink ref="D16" r:id="rId9"/>
-    <hyperlink ref="D17" r:id="rId10"/>
-    <hyperlink ref="D18" r:id="rId11"/>
-    <hyperlink ref="D19" r:id="rId12"/>
-    <hyperlink ref="D21" r:id="rId13"/>
-    <hyperlink ref="D23" r:id="rId14"/>
-    <hyperlink ref="D26" r:id="rId15"/>
-    <hyperlink ref="D25" r:id="rId16"/>
-    <hyperlink ref="D22" r:id="rId17"/>
-    <hyperlink ref="D27" r:id="rId18"/>
-    <hyperlink ref="D29" r:id="rId19"/>
+    <hyperlink ref="D10" r:id="rId6"/>
+    <hyperlink ref="D11" r:id="rId7"/>
+    <hyperlink ref="D16" r:id="rId8"/>
+    <hyperlink ref="D17" r:id="rId9"/>
+    <hyperlink ref="D18" r:id="rId10"/>
+    <hyperlink ref="D19" r:id="rId11"/>
+    <hyperlink ref="D20" r:id="rId12"/>
+    <hyperlink ref="D22" r:id="rId13"/>
+    <hyperlink ref="D24" r:id="rId14"/>
+    <hyperlink ref="D27" r:id="rId15"/>
+    <hyperlink ref="D26" r:id="rId16"/>
+    <hyperlink ref="D23" r:id="rId17"/>
+    <hyperlink ref="D28" r:id="rId18"/>
+    <hyperlink ref="D30" r:id="rId19"/>
     <hyperlink ref="D4" r:id="rId20"/>
-    <hyperlink ref="D20" r:id="rId21"/>
-    <hyperlink ref="D32" r:id="rId22"/>
+    <hyperlink ref="D21" r:id="rId21"/>
+    <hyperlink ref="D33" r:id="rId22"/>
     <hyperlink ref="D5" r:id="rId23"/>
-    <hyperlink ref="D13" r:id="rId24"/>
-    <hyperlink ref="D14" r:id="rId25"/>
-    <hyperlink ref="D12" r:id="rId26"/>
-    <hyperlink ref="D31" r:id="rId27"/>
-    <hyperlink ref="D28" r:id="rId28"/>
+    <hyperlink ref="D14" r:id="rId24"/>
+    <hyperlink ref="D15" r:id="rId25"/>
+    <hyperlink ref="D13" r:id="rId26"/>
+    <hyperlink ref="D32" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D7" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId30"/>
 </worksheet>
 </file>
--- a/how_to_use.xlsx
+++ b/how_to_use.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="97">
   <si>
     <t>parameter:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -367,6 +367,13 @@
   <si>
     <t>http://localhost/fyp_connect/customer_get_order2.php?id=c0001</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/driver_get_order2.php?id=d0001</t>
   </si>
 </sst>
 </file>
@@ -797,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.25"/>
@@ -969,372 +976,384 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>78</v>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>49</v>
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D30" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>80</v>
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D36" r:id="rId1"/>
-    <hyperlink ref="D34" r:id="rId2"/>
+    <hyperlink ref="D37" r:id="rId1"/>
+    <hyperlink ref="D35" r:id="rId2"/>
     <hyperlink ref="D2" r:id="rId3"/>
     <hyperlink ref="D3" r:id="rId4"/>
     <hyperlink ref="D6" r:id="rId5"/>
     <hyperlink ref="D10" r:id="rId6"/>
     <hyperlink ref="D11" r:id="rId7"/>
-    <hyperlink ref="D16" r:id="rId8"/>
-    <hyperlink ref="D17" r:id="rId9"/>
-    <hyperlink ref="D18" r:id="rId10"/>
-    <hyperlink ref="D19" r:id="rId11"/>
-    <hyperlink ref="D20" r:id="rId12"/>
-    <hyperlink ref="D22" r:id="rId13"/>
-    <hyperlink ref="D24" r:id="rId14"/>
-    <hyperlink ref="D27" r:id="rId15"/>
-    <hyperlink ref="D26" r:id="rId16"/>
-    <hyperlink ref="D23" r:id="rId17"/>
-    <hyperlink ref="D28" r:id="rId18"/>
-    <hyperlink ref="D30" r:id="rId19"/>
+    <hyperlink ref="D17" r:id="rId8"/>
+    <hyperlink ref="D18" r:id="rId9"/>
+    <hyperlink ref="D19" r:id="rId10"/>
+    <hyperlink ref="D20" r:id="rId11"/>
+    <hyperlink ref="D21" r:id="rId12"/>
+    <hyperlink ref="D23" r:id="rId13"/>
+    <hyperlink ref="D25" r:id="rId14"/>
+    <hyperlink ref="D28" r:id="rId15"/>
+    <hyperlink ref="D27" r:id="rId16"/>
+    <hyperlink ref="D24" r:id="rId17"/>
+    <hyperlink ref="D29" r:id="rId18"/>
+    <hyperlink ref="D31" r:id="rId19"/>
     <hyperlink ref="D4" r:id="rId20"/>
-    <hyperlink ref="D21" r:id="rId21"/>
-    <hyperlink ref="D33" r:id="rId22"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D34" r:id="rId22"/>
     <hyperlink ref="D5" r:id="rId23"/>
-    <hyperlink ref="D14" r:id="rId24"/>
-    <hyperlink ref="D15" r:id="rId25"/>
-    <hyperlink ref="D13" r:id="rId26"/>
-    <hyperlink ref="D32" r:id="rId27"/>
-    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D15" r:id="rId24"/>
+    <hyperlink ref="D16" r:id="rId25"/>
+    <hyperlink ref="D14" r:id="rId26"/>
+    <hyperlink ref="D33" r:id="rId27"/>
+    <hyperlink ref="D30" r:id="rId28"/>
     <hyperlink ref="D7" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/how_to_use.xlsx
+++ b/how_to_use.xlsx
@@ -369,11 +369,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://localhost/fyp_connect/driver_get_order2.php?id=d0001</t>
+  </si>
+  <si>
+    <t>driver_get_order2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -806,7 +806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -976,20 +976,22 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
       <c r="B13" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>72</v>
@@ -1003,7 +1005,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>74</v>
@@ -1017,7 +1019,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>75</v>
@@ -1031,7 +1033,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
@@ -1045,7 +1047,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>11</v>
@@ -1059,7 +1061,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>12</v>
@@ -1073,7 +1075,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>13</v>
@@ -1087,7 +1089,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>14</v>
@@ -1101,7 +1103,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>63</v>
@@ -1115,7 +1117,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>15</v>
@@ -1129,7 +1131,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>16</v>
@@ -1143,7 +1145,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>17</v>
@@ -1157,7 +1159,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>59</v>
@@ -1171,7 +1173,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>21</v>
@@ -1185,7 +1187,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>22</v>
@@ -1199,7 +1201,7 @@
     </row>
     <row r="29" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>18</v>
@@ -1213,7 +1215,7 @@
     </row>
     <row r="30" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>81</v>
@@ -1227,7 +1229,7 @@
     </row>
     <row r="31" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>19</v>
@@ -1241,7 +1243,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>66</v>
@@ -1255,7 +1257,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>79</v>
@@ -1269,7 +1271,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>67</v>
@@ -1283,7 +1285,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>20</v>
@@ -1297,7 +1299,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>86</v>
@@ -1311,7 +1313,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>23</v>

--- a/how_to_use.xlsx
+++ b/how_to_use.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="100">
   <si>
     <t>parameter:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -373,6 +373,18 @@
   </si>
   <si>
     <t>driver_get_order2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_order_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/get_order_count.php?number=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -804,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="D15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.25"/>
@@ -1120,13 +1132,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>54</v>
+        <v>98</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1134,13 +1146,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1148,13 +1160,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1162,13 +1174,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1176,13 +1188,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1190,27 +1202,27 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1218,13 +1230,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1232,41 +1244,41 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>80</v>
+      <c r="B33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1274,27 +1286,27 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>43</v>
+      <c r="B35" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1302,13 +1314,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1316,20 +1328,34 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D37" r:id="rId1"/>
-    <hyperlink ref="D35" r:id="rId2"/>
+    <hyperlink ref="D38" r:id="rId1"/>
+    <hyperlink ref="D36" r:id="rId2"/>
     <hyperlink ref="D2" r:id="rId3"/>
     <hyperlink ref="D3" r:id="rId4"/>
     <hyperlink ref="D6" r:id="rId5"/>
@@ -1340,25 +1366,26 @@
     <hyperlink ref="D19" r:id="rId10"/>
     <hyperlink ref="D20" r:id="rId11"/>
     <hyperlink ref="D21" r:id="rId12"/>
-    <hyperlink ref="D23" r:id="rId13"/>
-    <hyperlink ref="D25" r:id="rId14"/>
-    <hyperlink ref="D28" r:id="rId15"/>
-    <hyperlink ref="D27" r:id="rId16"/>
-    <hyperlink ref="D24" r:id="rId17"/>
-    <hyperlink ref="D29" r:id="rId18"/>
-    <hyperlink ref="D31" r:id="rId19"/>
+    <hyperlink ref="D24" r:id="rId13"/>
+    <hyperlink ref="D26" r:id="rId14"/>
+    <hyperlink ref="D29" r:id="rId15"/>
+    <hyperlink ref="D28" r:id="rId16"/>
+    <hyperlink ref="D25" r:id="rId17"/>
+    <hyperlink ref="D30" r:id="rId18"/>
+    <hyperlink ref="D32" r:id="rId19"/>
     <hyperlink ref="D4" r:id="rId20"/>
     <hyperlink ref="D22" r:id="rId21"/>
-    <hyperlink ref="D34" r:id="rId22"/>
+    <hyperlink ref="D35" r:id="rId22"/>
     <hyperlink ref="D5" r:id="rId23"/>
     <hyperlink ref="D15" r:id="rId24"/>
     <hyperlink ref="D16" r:id="rId25"/>
     <hyperlink ref="D14" r:id="rId26"/>
-    <hyperlink ref="D33" r:id="rId27"/>
-    <hyperlink ref="D30" r:id="rId28"/>
+    <hyperlink ref="D34" r:id="rId27"/>
+    <hyperlink ref="D31" r:id="rId28"/>
     <hyperlink ref="D7" r:id="rId29"/>
+    <hyperlink ref="D23" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId31"/>
 </worksheet>
 </file>
--- a/how_to_use.xlsx
+++ b/how_to_use.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="105">
   <si>
     <t>parameter:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -385,6 +385,24 @@
   </si>
   <si>
     <t>http://localhost/fyp_connect/get_order_count.php?number=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver_get_order_qty</t>
+  </si>
+  <si>
+    <t>driver_get_order_time</t>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/driver_get_order_qty.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/driver_get_order_time.php</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -816,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.25"/>
@@ -992,41 +1010,41 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>95</v>
+        <v>102</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>78</v>
+      <c r="B14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>76</v>
+      <c r="B15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1034,41 +1052,41 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>49</v>
+      <c r="B17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>50</v>
+      <c r="B18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1076,13 +1094,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1090,13 +1108,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1104,13 +1122,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1118,13 +1136,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1132,13 +1150,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>99</v>
+        <v>32</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1146,13 +1164,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1160,13 +1178,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>58</v>
+        <v>98</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1174,13 +1192,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1188,13 +1206,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1202,13 +1220,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1216,41 +1234,41 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1258,83 +1276,83 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>80</v>
+      <c r="B34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>69</v>
+      <c r="B35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>43</v>
+      <c r="B36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>88</v>
+      <c r="B37" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1342,50 +1360,80 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D38" r:id="rId1"/>
-    <hyperlink ref="D36" r:id="rId2"/>
+    <hyperlink ref="D40" r:id="rId1"/>
+    <hyperlink ref="D38" r:id="rId2"/>
     <hyperlink ref="D2" r:id="rId3"/>
     <hyperlink ref="D3" r:id="rId4"/>
     <hyperlink ref="D6" r:id="rId5"/>
     <hyperlink ref="D10" r:id="rId6"/>
     <hyperlink ref="D11" r:id="rId7"/>
-    <hyperlink ref="D17" r:id="rId8"/>
-    <hyperlink ref="D18" r:id="rId9"/>
-    <hyperlink ref="D19" r:id="rId10"/>
-    <hyperlink ref="D20" r:id="rId11"/>
-    <hyperlink ref="D21" r:id="rId12"/>
-    <hyperlink ref="D24" r:id="rId13"/>
-    <hyperlink ref="D26" r:id="rId14"/>
-    <hyperlink ref="D29" r:id="rId15"/>
-    <hyperlink ref="D28" r:id="rId16"/>
-    <hyperlink ref="D25" r:id="rId17"/>
-    <hyperlink ref="D30" r:id="rId18"/>
-    <hyperlink ref="D32" r:id="rId19"/>
+    <hyperlink ref="D19" r:id="rId8"/>
+    <hyperlink ref="D20" r:id="rId9"/>
+    <hyperlink ref="D21" r:id="rId10"/>
+    <hyperlink ref="D22" r:id="rId11"/>
+    <hyperlink ref="D23" r:id="rId12"/>
+    <hyperlink ref="D26" r:id="rId13"/>
+    <hyperlink ref="D28" r:id="rId14"/>
+    <hyperlink ref="D31" r:id="rId15"/>
+    <hyperlink ref="D30" r:id="rId16"/>
+    <hyperlink ref="D27" r:id="rId17"/>
+    <hyperlink ref="D32" r:id="rId18"/>
+    <hyperlink ref="D34" r:id="rId19"/>
     <hyperlink ref="D4" r:id="rId20"/>
-    <hyperlink ref="D22" r:id="rId21"/>
-    <hyperlink ref="D35" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId21"/>
+    <hyperlink ref="D37" r:id="rId22"/>
     <hyperlink ref="D5" r:id="rId23"/>
-    <hyperlink ref="D15" r:id="rId24"/>
-    <hyperlink ref="D16" r:id="rId25"/>
-    <hyperlink ref="D14" r:id="rId26"/>
-    <hyperlink ref="D34" r:id="rId27"/>
-    <hyperlink ref="D31" r:id="rId28"/>
+    <hyperlink ref="D17" r:id="rId24"/>
+    <hyperlink ref="D18" r:id="rId25"/>
+    <hyperlink ref="D16" r:id="rId26"/>
+    <hyperlink ref="D36" r:id="rId27"/>
+    <hyperlink ref="D33" r:id="rId28"/>
     <hyperlink ref="D7" r:id="rId29"/>
-    <hyperlink ref="D23" r:id="rId30"/>
+    <hyperlink ref="D25" r:id="rId30"/>
+    <hyperlink ref="D13" r:id="rId31"/>
+    <hyperlink ref="D14" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId31"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId33"/>
 </worksheet>
 </file>
--- a/how_to_use.xlsx
+++ b/how_to_use.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="111">
   <si>
     <t>parameter:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -403,6 +403,28 @@
   </si>
   <si>
     <t>http://localhost/fyp_connect/driver_get_order_time.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advance_search_food</t>
+  </si>
+  <si>
+    <t>advance_search_restaurant</t>
+  </si>
+  <si>
+    <t>keyword, type, min, max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyword, type, district</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/advance_search_food.php?keyword=tea&amp;type=Drink&amp;min=1&amp;max=15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/advance_search_restaurant.php?keyword=tea&amp;type=Itailan&amp;district=Tai%20po</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -834,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.25"/>
@@ -864,13 +886,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>44</v>
+        <v>107</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -878,13 +900,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>45</v>
+        <v>108</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -892,548 +914,578 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>71</v>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>94</v>
+      <c r="C7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>47</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>103</v>
+        <v>30</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>104</v>
+        <v>90</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>95</v>
+        <v>102</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>78</v>
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>76</v>
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>49</v>
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>50</v>
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>99</v>
+        <v>32</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>58</v>
+        <v>98</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="D29" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
+        <v>31</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>32</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>69</v>
+        <v>34</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>88</v>
+        <v>36</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
+        <v>37</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D40" r:id="rId1"/>
-    <hyperlink ref="D38" r:id="rId2"/>
-    <hyperlink ref="D2" r:id="rId3"/>
-    <hyperlink ref="D3" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D10" r:id="rId6"/>
-    <hyperlink ref="D11" r:id="rId7"/>
-    <hyperlink ref="D19" r:id="rId8"/>
-    <hyperlink ref="D20" r:id="rId9"/>
-    <hyperlink ref="D21" r:id="rId10"/>
-    <hyperlink ref="D22" r:id="rId11"/>
-    <hyperlink ref="D23" r:id="rId12"/>
-    <hyperlink ref="D26" r:id="rId13"/>
-    <hyperlink ref="D28" r:id="rId14"/>
-    <hyperlink ref="D31" r:id="rId15"/>
-    <hyperlink ref="D30" r:id="rId16"/>
-    <hyperlink ref="D27" r:id="rId17"/>
-    <hyperlink ref="D32" r:id="rId18"/>
-    <hyperlink ref="D34" r:id="rId19"/>
-    <hyperlink ref="D4" r:id="rId20"/>
-    <hyperlink ref="D24" r:id="rId21"/>
-    <hyperlink ref="D37" r:id="rId22"/>
-    <hyperlink ref="D5" r:id="rId23"/>
-    <hyperlink ref="D17" r:id="rId24"/>
-    <hyperlink ref="D18" r:id="rId25"/>
-    <hyperlink ref="D16" r:id="rId26"/>
-    <hyperlink ref="D36" r:id="rId27"/>
-    <hyperlink ref="D33" r:id="rId28"/>
-    <hyperlink ref="D7" r:id="rId29"/>
-    <hyperlink ref="D25" r:id="rId30"/>
-    <hyperlink ref="D13" r:id="rId31"/>
-    <hyperlink ref="D14" r:id="rId32"/>
+    <hyperlink ref="D42" r:id="rId1"/>
+    <hyperlink ref="D40" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D8" r:id="rId5"/>
+    <hyperlink ref="D12" r:id="rId6"/>
+    <hyperlink ref="D13" r:id="rId7"/>
+    <hyperlink ref="D21" r:id="rId8"/>
+    <hyperlink ref="D22" r:id="rId9"/>
+    <hyperlink ref="D23" r:id="rId10"/>
+    <hyperlink ref="D24" r:id="rId11"/>
+    <hyperlink ref="D25" r:id="rId12"/>
+    <hyperlink ref="D28" r:id="rId13"/>
+    <hyperlink ref="D30" r:id="rId14"/>
+    <hyperlink ref="D33" r:id="rId15"/>
+    <hyperlink ref="D32" r:id="rId16"/>
+    <hyperlink ref="D29" r:id="rId17"/>
+    <hyperlink ref="D34" r:id="rId18"/>
+    <hyperlink ref="D36" r:id="rId19"/>
+    <hyperlink ref="D6" r:id="rId20"/>
+    <hyperlink ref="D26" r:id="rId21"/>
+    <hyperlink ref="D39" r:id="rId22"/>
+    <hyperlink ref="D7" r:id="rId23"/>
+    <hyperlink ref="D19" r:id="rId24"/>
+    <hyperlink ref="D20" r:id="rId25"/>
+    <hyperlink ref="D18" r:id="rId26"/>
+    <hyperlink ref="D38" r:id="rId27"/>
+    <hyperlink ref="D35" r:id="rId28"/>
+    <hyperlink ref="D9" r:id="rId29"/>
+    <hyperlink ref="D27" r:id="rId30"/>
+    <hyperlink ref="D15" r:id="rId31"/>
+    <hyperlink ref="D16" r:id="rId32"/>
+    <hyperlink ref="D2" r:id="rId33"/>
+    <hyperlink ref="D3" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId33"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId35"/>
 </worksheet>
 </file>
--- a/how_to_use.xlsx
+++ b/how_to_use.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="120">
   <si>
     <t>parameter:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -426,6 +426,40 @@
   <si>
     <t>http://localhost/fyp_connect/advance_search_restaurant.php?keyword=tea&amp;type=Itailan&amp;district=Tai%20po</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver_get_order2_qty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver_get_order2_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/driver_get_order2_qty.php?id=d0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/driver_get_order2_time.php?id=d0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_order_rest_count</t>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/get_order_rest_count.php?number=1</t>
   </si>
 </sst>
 </file>
@@ -856,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.25"/>
@@ -925,7 +959,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -939,7 +973,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -953,7 +987,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
@@ -967,7 +1001,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -981,7 +1015,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>92</v>
@@ -995,7 +1029,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
@@ -1005,7 +1039,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
@@ -1015,7 +1049,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>8</v>
@@ -1029,7 +1063,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>9</v>
@@ -1043,7 +1077,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>89</v>
@@ -1057,7 +1091,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>100</v>
@@ -1071,7 +1105,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>101</v>
@@ -1085,7 +1119,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>96</v>
@@ -1099,393 +1133,437 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>78</v>
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>16</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>76</v>
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>18</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>49</v>
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>19</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>99</v>
+        <v>32</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>58</v>
+        <v>98</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>55</v>
+        <v>33</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>31</v>
-      </c>
-      <c r="B34" s="1" t="s">
+    <row r="37" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>32</v>
-      </c>
-      <c r="B35" s="1" t="s">
+    <row r="38" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>33</v>
-      </c>
-      <c r="B36" s="1" t="s">
+    <row r="39" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D39" s="5" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>34</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>35</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>36</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>38</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>88</v>
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>39</v>
-      </c>
-      <c r="B42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D45" s="5" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D42" r:id="rId1"/>
-    <hyperlink ref="D40" r:id="rId2"/>
+    <hyperlink ref="D45" r:id="rId1"/>
+    <hyperlink ref="D43" r:id="rId2"/>
     <hyperlink ref="D4" r:id="rId3"/>
     <hyperlink ref="D5" r:id="rId4"/>
     <hyperlink ref="D8" r:id="rId5"/>
     <hyperlink ref="D12" r:id="rId6"/>
     <hyperlink ref="D13" r:id="rId7"/>
-    <hyperlink ref="D21" r:id="rId8"/>
-    <hyperlink ref="D22" r:id="rId9"/>
-    <hyperlink ref="D23" r:id="rId10"/>
-    <hyperlink ref="D24" r:id="rId11"/>
-    <hyperlink ref="D25" r:id="rId12"/>
-    <hyperlink ref="D28" r:id="rId13"/>
-    <hyperlink ref="D30" r:id="rId14"/>
-    <hyperlink ref="D33" r:id="rId15"/>
-    <hyperlink ref="D32" r:id="rId16"/>
-    <hyperlink ref="D29" r:id="rId17"/>
-    <hyperlink ref="D34" r:id="rId18"/>
-    <hyperlink ref="D36" r:id="rId19"/>
+    <hyperlink ref="D23" r:id="rId8"/>
+    <hyperlink ref="D24" r:id="rId9"/>
+    <hyperlink ref="D25" r:id="rId10"/>
+    <hyperlink ref="D26" r:id="rId11"/>
+    <hyperlink ref="D27" r:id="rId12"/>
+    <hyperlink ref="D30" r:id="rId13"/>
+    <hyperlink ref="D33" r:id="rId14"/>
+    <hyperlink ref="D36" r:id="rId15"/>
+    <hyperlink ref="D35" r:id="rId16"/>
+    <hyperlink ref="D32" r:id="rId17"/>
+    <hyperlink ref="D37" r:id="rId18"/>
+    <hyperlink ref="D39" r:id="rId19"/>
     <hyperlink ref="D6" r:id="rId20"/>
-    <hyperlink ref="D26" r:id="rId21"/>
-    <hyperlink ref="D39" r:id="rId22"/>
+    <hyperlink ref="D28" r:id="rId21"/>
+    <hyperlink ref="D42" r:id="rId22"/>
     <hyperlink ref="D7" r:id="rId23"/>
-    <hyperlink ref="D19" r:id="rId24"/>
-    <hyperlink ref="D20" r:id="rId25"/>
-    <hyperlink ref="D18" r:id="rId26"/>
-    <hyperlink ref="D38" r:id="rId27"/>
-    <hyperlink ref="D35" r:id="rId28"/>
+    <hyperlink ref="D21" r:id="rId24"/>
+    <hyperlink ref="D22" r:id="rId25"/>
+    <hyperlink ref="D20" r:id="rId26"/>
+    <hyperlink ref="D41" r:id="rId27"/>
+    <hyperlink ref="D38" r:id="rId28"/>
     <hyperlink ref="D9" r:id="rId29"/>
-    <hyperlink ref="D27" r:id="rId30"/>
+    <hyperlink ref="D29" r:id="rId30"/>
     <hyperlink ref="D15" r:id="rId31"/>
     <hyperlink ref="D16" r:id="rId32"/>
     <hyperlink ref="D2" r:id="rId33"/>
     <hyperlink ref="D3" r:id="rId34"/>
+    <hyperlink ref="D18" r:id="rId35"/>
+    <hyperlink ref="D19" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId35"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId37"/>
 </worksheet>
 </file>
--- a/how_to_use.xlsx
+++ b/how_to_use.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="126">
   <si>
     <t>parameter:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -460,6 +460,30 @@
   </si>
   <si>
     <t>http://localhost/fyp_connect/get_order_rest_count.php?number=1</t>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_orderline_rest_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/get_orderline_rest_count.php?number=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_rest_details</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/fyp_connect/get_rest_details.php?sql=SELECT*FROM%20restaurant%20WHERE%20id=%27r0001%27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -890,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" x14ac:dyDescent="0.25"/>
@@ -1332,13 +1356,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>58</v>
+        <v>120</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1346,13 +1370,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>55</v>
+        <v>121</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1360,13 +1384,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1374,13 +1398,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1388,41 +1412,41 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1430,83 +1454,83 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>80</v>
+      <c r="B41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>69</v>
+      <c r="B42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>43</v>
+      <c r="B43" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>88</v>
+      <c r="B44" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1514,20 +1538,48 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D45" r:id="rId1"/>
-    <hyperlink ref="D43" r:id="rId2"/>
+    <hyperlink ref="D47" r:id="rId1"/>
+    <hyperlink ref="D45" r:id="rId2"/>
     <hyperlink ref="D4" r:id="rId3"/>
     <hyperlink ref="D5" r:id="rId4"/>
     <hyperlink ref="D8" r:id="rId5"/>
@@ -1539,21 +1591,21 @@
     <hyperlink ref="D26" r:id="rId11"/>
     <hyperlink ref="D27" r:id="rId12"/>
     <hyperlink ref="D30" r:id="rId13"/>
-    <hyperlink ref="D33" r:id="rId14"/>
-    <hyperlink ref="D36" r:id="rId15"/>
-    <hyperlink ref="D35" r:id="rId16"/>
-    <hyperlink ref="D32" r:id="rId17"/>
-    <hyperlink ref="D37" r:id="rId18"/>
-    <hyperlink ref="D39" r:id="rId19"/>
+    <hyperlink ref="D35" r:id="rId14"/>
+    <hyperlink ref="D38" r:id="rId15"/>
+    <hyperlink ref="D37" r:id="rId16"/>
+    <hyperlink ref="D34" r:id="rId17"/>
+    <hyperlink ref="D39" r:id="rId18"/>
+    <hyperlink ref="D41" r:id="rId19"/>
     <hyperlink ref="D6" r:id="rId20"/>
     <hyperlink ref="D28" r:id="rId21"/>
-    <hyperlink ref="D42" r:id="rId22"/>
+    <hyperlink ref="D44" r:id="rId22"/>
     <hyperlink ref="D7" r:id="rId23"/>
     <hyperlink ref="D21" r:id="rId24"/>
     <hyperlink ref="D22" r:id="rId25"/>
     <hyperlink ref="D20" r:id="rId26"/>
-    <hyperlink ref="D41" r:id="rId27"/>
-    <hyperlink ref="D38" r:id="rId28"/>
+    <hyperlink ref="D43" r:id="rId27"/>
+    <hyperlink ref="D40" r:id="rId28"/>
     <hyperlink ref="D9" r:id="rId29"/>
     <hyperlink ref="D29" r:id="rId30"/>
     <hyperlink ref="D15" r:id="rId31"/>
@@ -1562,8 +1614,10 @@
     <hyperlink ref="D3" r:id="rId34"/>
     <hyperlink ref="D18" r:id="rId35"/>
     <hyperlink ref="D19" r:id="rId36"/>
+    <hyperlink ref="D32" r:id="rId37"/>
+    <hyperlink ref="D33" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId39"/>
 </worksheet>
 </file>